--- a/src/main/java/Resources/testdata.xlsx
+++ b/src/main/java/Resources/testdata.xlsx
@@ -1,25 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\eclipse-workspace\SevenrmartSupermarket\src\main\java\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAB8E20C-DE30-445C-AC97-6A22E7F10EB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FED5E982-EEB7-48AA-B4D2-F898621BF97C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="2" xr2:uid="{6D386F28-7B9F-4A2F-8EF5-4352D4C839AD}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{6D386F28-7B9F-4A2F-8EF5-4352D4C839AD}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
-    <sheet name="Categories" sheetId="2" r:id="rId2"/>
-    <sheet name="MobileSlider" sheetId="8" r:id="rId3"/>
-    <sheet name="ManagePaymentMethods" sheetId="7" r:id="rId4"/>
-    <sheet name="ExpenseCategory" sheetId="4" r:id="rId5"/>
-    <sheet name="ManageSlider" sheetId="5" r:id="rId6"/>
-    <sheet name="ManageOfferCode" sheetId="6" r:id="rId7"/>
+    <sheet name="ManageExpense" sheetId="13" r:id="rId2"/>
+    <sheet name="ManageDeliveryBoy" sheetId="12" r:id="rId3"/>
+    <sheet name="Categories" sheetId="2" r:id="rId4"/>
+    <sheet name="MobileSlider" sheetId="8" r:id="rId5"/>
+    <sheet name="ManageLocation" sheetId="9" r:id="rId6"/>
+    <sheet name="ManagePaymentMethods" sheetId="7" r:id="rId7"/>
+    <sheet name="ExpenseCategory" sheetId="4" r:id="rId8"/>
+    <sheet name="ManageSlider" sheetId="5" r:id="rId9"/>
+    <sheet name="ManageOfferCode" sheetId="6" r:id="rId10"/>
+    <sheet name="ManageCategorySubcategory" sheetId="10" r:id="rId11"/>
+    <sheet name="Logo" sheetId="11" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="50">
   <si>
     <t>Username</t>
   </si>
@@ -153,10 +158,43 @@
     <t>Manage Location</t>
   </si>
   <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>Fruit</t>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>England</t>
+  </si>
+  <si>
+    <t>5548 Harvey Drive</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Vegetables</t>
+  </si>
+  <si>
+    <t>subcategory</t>
+  </si>
+  <si>
+    <t>Iceberg lettuce</t>
+  </si>
+  <si>
+    <t>7rmart supermarket</t>
+  </si>
+  <si>
+    <t>Logo</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>test123@gmail.com</t>
+  </si>
+  <si>
+    <t>Title Date Credit Bank Debit Bank Credit Cash Debit Cash Cash With DB View More Action</t>
+  </si>
+  <si>
+    <t>Heading</t>
   </si>
 </sst>
 </file>
@@ -249,7 +287,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -259,6 +297,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -577,7 +616,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C1:C4"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -604,18 +643,18 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
         <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -631,7 +670,146 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85110CA2-18C3-41E1-8EE6-6E781ACC47CA}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="21.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEEB8C51-A703-4853-A6B3-B7EAD38227C2}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F67D0D73-5217-42F3-AD52-E7E4E096C242}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{788DE98C-750D-48AE-888E-70A58AB86955}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="72" style="9" customWidth="1"/>
+    <col min="2" max="16384" width="8.88671875" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCB9066D-0841-4115-BC50-2B821A8AB013}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9804406D-5BB4-4DD8-98B2-8A20FC1C5893}">
   <dimension ref="A1:D18"/>
   <sheetViews>
@@ -743,32 +921,57 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B4B5EBB-D1D0-4CFF-B134-5F4F79E4BC5F}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A1:A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B509A920-F933-485F-B1CD-4965BAC4D9DC}">
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>37</v>
+      <c r="A1" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8211E47C-1119-424F-9BB4-5246AD994E3C}">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -791,7 +994,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30955D14-84C5-43CF-BD54-A845FF56123F}">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -839,7 +1042,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86CB3723-AAA2-4919-A5F9-E019F0E2850C}">
   <dimension ref="A1:D16"/>
   <sheetViews>
@@ -924,32 +1127,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85110CA2-18C3-41E1-8EE6-6E781ACC47CA}">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="21.77734375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>